--- a/results/tinybert/dilemma/seed-300/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/seed-300/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,211 +46,253 @@
     <t>scary</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fails</t>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>few</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>0.95-positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>emotional</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>0.95-positive</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>i</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -626,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS48"/>
+  <dimension ref="A1:BS46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,25 +679,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AB1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AK1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AT1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="BC1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="BL1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -857,13 +899,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0608552441354789</v>
+        <v>0.00184729293099752</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -875,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.08817828680349851</v>
+        <v>0.02881985505857189</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -899,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.03156438317274139</v>
+        <v>0.00187985081958245</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -923,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC3">
-        <v>0.05754040322867363</v>
+        <v>0.02540579674346762</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -947,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.02671555645488609</v>
+        <v>0.001927435425975808</v>
       </c>
       <c r="AM3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -971,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AU3">
-        <v>0.05239387421401077</v>
+        <v>0.02489818763279097</v>
       </c>
       <c r="AV3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -995,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3">
-        <v>0.02472170026961274</v>
+        <v>0.002080727681140417</v>
       </c>
       <c r="BE3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BF3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1019,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="BM3">
-        <v>0.0502713476851212</v>
+        <v>0.02469369221428066</v>
       </c>
       <c r="BN3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BO3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1043,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1051,13 +1093,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03997834407297909</v>
+        <v>0.001464277856020454</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1069,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.06002584910425778</v>
+        <v>0.02876031737870471</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1093,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.02663402982627113</v>
+        <v>0.001592704902920446</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1117,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AC4">
-        <v>0.05024312602269686</v>
+        <v>0.02534414568447072</v>
       </c>
       <c r="AD4">
         <v>4</v>
@@ -1141,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.02451220052495506</v>
+        <v>0.001780405971466589</v>
       </c>
       <c r="AM4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1165,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AU4">
-        <v>0.04859983143745874</v>
+        <v>0.0248362223523012</v>
       </c>
       <c r="AV4">
         <v>4</v>
@@ -1189,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02388049518633271</v>
+        <v>0.002003570796205182</v>
       </c>
       <c r="BE4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1213,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="BM4">
-        <v>0.04792210547069337</v>
+        <v>0.02463160034651271</v>
       </c>
       <c r="BN4">
         <v>4</v>
@@ -1237,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1245,38 +1287,38 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03532853879750393</v>
+        <v>0.001438725934515957</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>98</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>0.0285519354991696</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5">
-        <v>0.0534572346974554</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -1287,67 +1329,67 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.02604843455544709</v>
+        <v>0.001471333275774085</v>
       </c>
       <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5">
+        <v>0.02512836697798159</v>
+      </c>
+      <c r="AD5">
         <v>4</v>
       </c>
-      <c r="V5">
+      <c r="AE5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC5">
-        <v>0.04895899046212603</v>
-      </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>15</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="AL5">
-        <v>0.02442500403036814</v>
+        <v>0.001518990159151349</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1359,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AU5">
-        <v>0.04820337872361856</v>
+        <v>0.02473276757415194</v>
       </c>
       <c r="AV5">
         <v>3</v>
@@ -1383,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD5">
-        <v>0.02351664413159707</v>
+        <v>0.001697949978994702</v>
       </c>
       <c r="BE5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1407,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="BM5">
-        <v>0.04789175005972624</v>
+        <v>0.02461305398519208</v>
       </c>
       <c r="BN5">
         <v>3</v>
@@ -1431,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1439,13 +1481,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02972970062177912</v>
+        <v>0.001248563235001345</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1457,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.05320834577224645</v>
+        <v>0.02702854948294579</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -1481,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.02438451750830051</v>
+        <v>0.001334148297819207</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1505,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AC6">
-        <v>0.04867262799705822</v>
+        <v>0.02502992683997069</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -1529,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.02349967268501464</v>
+        <v>0.001459234158860699</v>
       </c>
       <c r="AM6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1553,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AU6">
-        <v>0.04791072148105104</v>
+        <v>0.02461934387058698</v>
       </c>
       <c r="AV6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1577,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.02313582109233576</v>
+        <v>0.001659371536527085</v>
       </c>
       <c r="BE6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1601,31 +1643,31 @@
         <v>0</v>
       </c>
       <c r="BJ6">
+        <v>61</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM6">
+        <v>0.02448274226188916</v>
+      </c>
+      <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS6">
         <v>16</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM6">
-        <v>0.04759649673109789</v>
-      </c>
-      <c r="BN6">
-        <v>3</v>
-      </c>
-      <c r="BO6">
-        <v>3</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1633,13 +1675,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02891870887065669</v>
+        <v>0.001057055697512812</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1651,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.05216753753955446</v>
+        <v>0.02686779774730441</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1675,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.0234630425358067</v>
+        <v>0.001190575339488206</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1699,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AC7">
-        <v>0.04747511223404741</v>
+        <v>0.02486346898067908</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -1723,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.02288704460308416</v>
+        <v>0.001385719431606089</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1747,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AU7">
-        <v>0.04716840111690378</v>
+        <v>0.02456546131682955</v>
       </c>
       <c r="AV7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1771,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD7">
-        <v>0.02279424705242339</v>
+        <v>0.001595241172554971</v>
       </c>
       <c r="BE7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BF7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1795,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="BM7">
-        <v>0.04721720556811545</v>
+        <v>0.02444540594221864</v>
       </c>
       <c r="BN7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1819,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1827,7 +1869,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02826301341230239</v>
+        <v>0.000829909953715375</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1845,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.04634558990837893</v>
+        <v>0.0267606299235435</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1869,109 +1911,109 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>0.0008777209011899104</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC8">
+        <v>0.02475249707448467</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>72</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8">
+        <v>0.0009475984398065392</v>
+      </c>
+      <c r="AM8">
+        <v>3</v>
+      </c>
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>44</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8">
+        <v>0.02451777529112109</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>16</v>
+      </c>
+      <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T8">
-        <v>0.02311271747072576</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC8">
-        <v>0.04705006406867999</v>
-      </c>
-      <c r="AD8">
-        <v>2</v>
-      </c>
-      <c r="AE8">
-        <v>2</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>8</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL8">
-        <v>0.02272708469988018</v>
-      </c>
-      <c r="AM8">
-        <v>2</v>
-      </c>
-      <c r="AN8">
-        <v>2</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>9</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU8">
-        <v>0.04714179591303401</v>
-      </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>2</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>9</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="BD8">
-        <v>0.02263300703078955</v>
+        <v>0.001174636708574254</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1989,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BM8">
-        <v>0.04719036435642197</v>
+        <v>0.02441444120734442</v>
       </c>
       <c r="BN8">
         <v>2</v>
@@ -2013,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2021,7 +2063,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02447596531887236</v>
+        <v>0.0006424369301486045</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2039,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.04632296364245085</v>
+        <v>0.02640106807921284</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2063,61 +2105,61 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>1092</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>0.0007533118839872815</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9">
+        <v>0.02460473608927626</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>16</v>
       </c>
-      <c r="T9">
-        <v>0.02295587066689703</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC9">
-        <v>0.04702403111731018</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>9</v>
-      </c>
       <c r="AK9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.0226071147724772</v>
+        <v>0.0009153598934438093</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2135,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AU9">
-        <v>0.04668688210304141</v>
+        <v>0.02445392381194795</v>
       </c>
       <c r="AV9">
         <v>3</v>
@@ -2162,10 +2204,10 @@
         <v>72</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.02251207701456418</v>
+        <v>0.00112353286556526</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2183,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="BM9">
-        <v>0.04668038133424573</v>
+        <v>0.02441427880932492</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2207,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2215,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02433792416974514</v>
+        <v>0.0006397472542007628</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2233,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.04589306458981721</v>
+        <v>0.02518961376342594</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2257,109 +2299,109 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>0.0007405359232350329</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10">
+        <v>0.02453691992437967</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>27</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL10">
+        <v>0.0008878424395158893</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU10">
+        <v>0.02444961348258234</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>27</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T10">
-        <v>0.02283823556402548</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC10">
-        <v>0.04652940504128397</v>
-      </c>
-      <c r="AD10">
-        <v>2</v>
-      </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>28</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL10">
-        <v>0.02255990825369128</v>
-      </c>
-      <c r="AM10">
-        <v>3</v>
-      </c>
-      <c r="AN10">
-        <v>3</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>63</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU10">
-        <v>0.04663629703950829</v>
-      </c>
-      <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
-        <v>2</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>28</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="BD10">
-        <v>0.02229037198481766</v>
+        <v>0.001110756904813011</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2377,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="BM10">
-        <v>0.04656950228819814</v>
+        <v>0.0243834764724702</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2409,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02423439330789973</v>
+        <v>0.0006390748352138023</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2427,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.04528215540975886</v>
+        <v>0.02512412231557205</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2451,109 +2493,109 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11">
+        <v>0.0007373419330469708</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC11">
+        <v>0.02448759907718216</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL11">
+        <v>0.0008809630760339093</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11">
+        <v>0.02440004125819051</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>35</v>
+      </c>
+      <c r="BC11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T11">
-        <v>0.02271802021762023</v>
-      </c>
-      <c r="U11">
-        <v>3</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>101</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC11">
-        <v>0.04582651535429937</v>
-      </c>
-      <c r="AD11">
-        <v>2</v>
-      </c>
-      <c r="AE11">
-        <v>2</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>55</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL11">
-        <v>0.02238716990557174</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>2</v>
-      </c>
-      <c r="AO11">
-        <v>1</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>26</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU11">
-        <v>0.04616002871405879</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="BD11">
-        <v>0.022188535965237</v>
+        <v>0.001059402501593145</v>
       </c>
       <c r="BE11">
         <v>3</v>
@@ -2571,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="BM11">
-        <v>0.04656950228819814</v>
+        <v>0.0243834764724702</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2603,7 +2645,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02404458672784979</v>
+        <v>0.0006357127402790001</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2621,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.04512377154826226</v>
+        <v>0.02507649217167831</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2645,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02262257120876097</v>
+        <v>0.0007213719821066601</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2669,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AC12">
-        <v>0.04564428469471076</v>
+        <v>0.02441978291228557</v>
       </c>
       <c r="AD12">
         <v>2</v>
@@ -2693,85 +2735,85 @@
         <v>0</v>
       </c>
       <c r="AI12">
+        <v>46</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL12">
+        <v>0.0008465662586240095</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>13</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU12">
+        <v>0.02433376564833513</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD12">
+        <v>0.001046877101051768</v>
+      </c>
+      <c r="BE12">
+        <v>2</v>
+      </c>
+      <c r="BF12">
+        <v>2</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>13</v>
+      </c>
+      <c r="BL12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AK12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL12">
-        <v>0.02224720499026826</v>
-      </c>
-      <c r="AM12">
-        <v>2</v>
-      </c>
-      <c r="AN12">
-        <v>2</v>
-      </c>
-      <c r="AO12">
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>33</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU12">
-        <v>0.04616002871405879</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD12">
-        <v>0.02217050297465181</v>
-      </c>
-      <c r="BE12">
-        <v>1</v>
-      </c>
-      <c r="BF12">
-        <v>1</v>
-      </c>
-      <c r="BG12">
-        <v>1</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="BM12">
-        <v>0.04654266107650466</v>
+        <v>0.0243834764724702</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2789,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2797,13 +2839,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02392380072236348</v>
+        <v>0.0004294119850773372</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2815,19 +2857,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.03925657138523057</v>
+        <v>0.02501100072382442</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2839,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02248533025541083</v>
+        <v>0.0005075312396382913</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2863,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AC13">
-        <v>0.04516717062660374</v>
+        <v>0.02421037086808027</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2890,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.02216722503866627</v>
+        <v>0.0006217055347658396</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2911,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AU13">
-        <v>0.04613342351018902</v>
+        <v>0.02433376564833513</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2935,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BD13">
-        <v>0.02217050297465181</v>
+        <v>0.0008043844069699169</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2962,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BM13">
-        <v>0.04648897865311769</v>
+        <v>0.0243834764724702</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2983,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2991,13 +3033,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02385478014779987</v>
+        <v>0.0004294119850773372</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3009,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.03925657138523057</v>
+        <v>0.02338044688383969</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3039,13 +3081,13 @@
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02240690685349647</v>
+        <v>0.0005075312396382913</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3057,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AC14">
-        <v>0.04516717062660374</v>
+        <v>0.02421037086808027</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3084,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.02214723005076577</v>
+        <v>0.0006217055347658396</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -3105,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AU14">
-        <v>0.04608021310244947</v>
+        <v>0.02433376564833513</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3129,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BD14">
-        <v>0.02217050297465181</v>
+        <v>0.0008043844069699169</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3156,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="BM14">
-        <v>0.0464621374414242</v>
+        <v>0.02437726728569341</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3177,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3185,13 +3227,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02383752500415896</v>
+        <v>0.0004294119850773372</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3203,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.03923394511930248</v>
+        <v>0.02338044688383969</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3227,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02238730100301788</v>
+        <v>0.0005075312396382913</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3251,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AC15">
-        <v>0.04514113767523394</v>
+        <v>0.02421037086808027</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3275,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02200726513546229</v>
+        <v>0.0006217055347658396</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3299,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AU15">
-        <v>0.04605360789857969</v>
+        <v>0.02433376564833513</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3323,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BD15">
-        <v>0.02217050297465181</v>
+        <v>0.0008043844069699169</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3350,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BM15">
-        <v>0.04643529622973071</v>
+        <v>0.02437105809891662</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3371,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3379,13 +3421,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02371673899867265</v>
+        <v>0.0004287395660903767</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3397,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.0391886925874463</v>
+        <v>0.02338044688383969</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3421,19 +3463,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.02225006004966773</v>
+        <v>0.0005043372494502291</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3445,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC16">
-        <v>0.04508907177249434</v>
+        <v>0.02421037086808027</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3469,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL16">
-        <v>0.02199448669054672</v>
+        <v>0.0006148261712838596</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3493,19 +3535,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AU16">
-        <v>0.04602700269470991</v>
+        <v>0.02433187944965176</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3517,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BD16">
-        <v>0.02217050297465181</v>
+        <v>0.0007916084462176684</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3541,19 +3583,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="BM16">
-        <v>0.04638161380634374</v>
+        <v>0.02436476771313007</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -3565,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3573,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01898065800499297</v>
+        <v>0.0004280671471034163</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3591,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.03916606632151821</v>
+        <v>0.02338044688383969</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3615,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.02156643552645073</v>
+        <v>0.000501143259262167</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3639,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AC17">
-        <v>0.04506303882112454</v>
+        <v>0.02420420576218058</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3663,103 +3705,103 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL17">
+        <v>0.0006079468078018796</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU17">
+        <v>0.02432756912028615</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD17">
+        <v>0.0007788324854654197</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>2</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17">
+        <v>0.02435863972536303</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>4</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL17">
-        <v>0.02199448669054672</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU17">
-        <v>0.04597379228697036</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>7</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD17">
-        <v>0.02215034797194758</v>
-      </c>
-      <c r="BE17">
-        <v>1</v>
-      </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM17">
-        <v>0.04636180099319753</v>
-      </c>
-      <c r="BN17">
-        <v>3</v>
-      </c>
-      <c r="BO17">
-        <v>3</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3767,7 +3809,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01898065800499297</v>
+        <v>0.0004280671471034163</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3785,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.03914344005559013</v>
+        <v>0.02337449311585297</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3809,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02156643552645073</v>
+        <v>0.000501143259262167</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3833,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AC18">
-        <v>0.04503700586975474</v>
+        <v>0.02419804065628089</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3857,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18">
-        <v>0.02199448669054672</v>
+        <v>0.0006079468078018796</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3881,19 +3923,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU18">
-        <v>0.04591795653502438</v>
+        <v>0.02432137259223717</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3905,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BD18">
-        <v>0.02215034797194758</v>
+        <v>0.0007788324854654197</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3929,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BM18">
-        <v>0.04611320168940889</v>
+        <v>0.02435863972536303</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3953,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3961,7 +4003,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01898065800499297</v>
+        <v>0.0004280671471034163</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3979,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.03909818752373395</v>
+        <v>0.02336853934786625</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4003,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02156643552645073</v>
+        <v>0.000501143259262167</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4027,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC19">
-        <v>0.04498493996701514</v>
+        <v>0.02418571044448151</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4051,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19">
-        <v>0.02199448669054672</v>
+        <v>0.0006079468078018796</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4075,19 +4117,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU19">
-        <v>0.04573172010793596</v>
+        <v>0.02430897953613922</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4099,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BD19">
-        <v>0.02215034797194758</v>
+        <v>0.0007788324854654197</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4123,19 +4165,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BM19">
-        <v>0.04595566861852161</v>
+        <v>0.02435863972536303</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -4147,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4155,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01898065800499297</v>
+        <v>0.0004280671471034163</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4173,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.03887192486445309</v>
+        <v>0.02335663181189282</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4197,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02156643552645073</v>
+        <v>0.000501143259262167</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4221,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AC20">
-        <v>0.04472461045331714</v>
+        <v>0.02418571044448151</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4245,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL20">
-        <v>0.02199448669054672</v>
+        <v>0.0006079468078018796</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4269,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AU20">
-        <v>0.04570774024827262</v>
+        <v>0.02430897953613922</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4293,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BD20">
-        <v>0.02215034797194758</v>
+        <v>0.0007788324854654197</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4317,19 +4359,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BM20">
-        <v>0.04576778013666721</v>
+        <v>0.02434622135180944</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4341,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4349,7 +4391,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01898065800499297</v>
+        <v>0.0004273947281164558</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4367,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.03844202581181944</v>
+        <v>0.02335663181189282</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4391,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.02156643552645073</v>
+        <v>0.0004979492690741048</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4415,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC21">
-        <v>0.04422998437729093</v>
+        <v>0.02418571044448151</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4439,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.02197449170264623</v>
+        <v>0.0006010674443198996</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4463,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AU21">
-        <v>0.0452022413747469</v>
+        <v>0.02430897953613922</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4487,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BD21">
-        <v>0.02215034797194758</v>
+        <v>0.0007660565247131712</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4511,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BM21">
-        <v>0.04560321866723265</v>
+        <v>0.02434001216503264</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4535,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4543,7 +4585,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01896340286135207</v>
+        <v>0.0004273947281164558</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4561,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.03808000555697005</v>
+        <v>0.02335663181189282</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4585,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.02154682967597214</v>
+        <v>0.0004979492690741048</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4609,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC22">
-        <v>0.04381345715537412</v>
+        <v>0.02417338023268213</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4633,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.02197449170264623</v>
+        <v>0.0006010674443198996</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4657,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AU22">
-        <v>0.04477655811283052</v>
+        <v>0.02429658648004127</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4681,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="BD22">
-        <v>0.02214928696588806</v>
+        <v>0.0007660565247131712</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4705,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="BM22">
-        <v>0.04517375928013687</v>
+        <v>0.02433364058023635</v>
       </c>
       <c r="BN22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP22">
         <v>0</v>
@@ -4729,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4737,7 +4779,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01896340286135207</v>
+        <v>0.0004273947281164558</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4755,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.03794424796140154</v>
+        <v>0.02334472427591938</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4779,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.02154682967597214</v>
+        <v>0.0004979492690741048</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4803,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC23">
-        <v>0.04365725944715532</v>
+        <v>0.02416721512678244</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4827,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.02197449170264623</v>
+        <v>0.0006010674443198996</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4851,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AU23">
-        <v>0.04461692688961186</v>
+        <v>0.02429038995199229</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4875,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="BD23">
-        <v>0.02213019296924335</v>
+        <v>0.0007660565247131712</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4899,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="BM23">
-        <v>0.04501271200997596</v>
+        <v>0.02432759379147906</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4923,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4931,7 +4973,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01896340286135207</v>
+        <v>0.0004273947281164558</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4949,19 +4991,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.03631352241162283</v>
+        <v>0.02333877050793267</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4973,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1094</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02154682967597214</v>
+        <v>0.0004979492690741048</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4997,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AC24">
-        <v>0.02296059298714602</v>
+        <v>0.02415488491498307</v>
       </c>
       <c r="AD24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -5021,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1094</v>
+        <v>9</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.02197449170264623</v>
+        <v>0.0006010674443198996</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5045,19 +5087,19 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AU24">
-        <v>0.02071757778193505</v>
+        <v>0.02427799689589433</v>
       </c>
       <c r="AV24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -5069,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>1094</v>
+        <v>9</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BD24">
-        <v>0.02213019296924335</v>
+        <v>0.0007660565247131712</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5093,19 +5135,19 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BM24">
-        <v>0.01979251561592007</v>
+        <v>0.02432138460470227</v>
       </c>
       <c r="BN24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5117,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1094</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5125,7 +5167,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01896340286135207</v>
+        <v>0.0004260498901425349</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5143,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.02332686297195923</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5167,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1735</v>
+        <v>9</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.02154682967597214</v>
+        <v>0.0004915612886979805</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5191,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.02414871980908338</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5215,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1735</v>
+        <v>10</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL25">
-        <v>0.02197449170264623</v>
+        <v>0.0005873087173559396</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5239,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>0.02427180036784535</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5263,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1735</v>
+        <v>10</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="BD25">
-        <v>0.02213019296924335</v>
+        <v>0.0007405046032086741</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5287,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BM25">
-        <v>0</v>
+        <v>0.02430275704437188</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5311,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1735</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5319,7 +5361,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01896340286135207</v>
+        <v>0.000424705052168614</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5337,13 +5379,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <v>0.02332090920397251</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.02154682967597214</v>
+        <v>0.0004851733083218563</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5361,13 +5427,37 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC26">
+        <v>0.02413022449138431</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>13</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.02195449671474573</v>
+        <v>0.0005735499903919796</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5385,13 +5475,37 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU26">
+        <v>0.02425321078369842</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>13</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BD26">
-        <v>0.02213019296924335</v>
+        <v>0.0007149526817041769</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5409,7 +5523,31 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM26">
+        <v>0.02429646665858534</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26">
+        <v>2</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5417,7 +5555,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01894614771771116</v>
+        <v>0.0004226877952077327</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5435,13 +5573,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27">
+        <v>0.02330304790001236</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02152722382549355</v>
+        <v>0.0004755913377576698</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5459,13 +5621,37 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC27">
+        <v>0.02410556406778555</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>17</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02195449671474573</v>
+        <v>0.0005529118999460397</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5483,13 +5669,37 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU27">
+        <v>0.02422842467150251</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>17</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.02213019296924335</v>
+        <v>0.0006766247994474312</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5507,7 +5717,31 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM27">
+        <v>0.0242779202972647</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5515,7 +5749,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01894614771771116</v>
+        <v>0.0004226877952077327</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5533,13 +5767,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <v>0.02327923282806549</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.02152722382549355</v>
+        <v>0.0004755913377576698</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5557,13 +5815,37 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28">
+        <v>0.02409939896188586</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>18</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.02195449671474573</v>
+        <v>0.0005529118999460397</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5581,13 +5863,37 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU28">
+        <v>0.02422222814345353</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>18</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="BD28">
-        <v>0.02211003796653912</v>
+        <v>0.0006766247994474312</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5605,7 +5911,31 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM28">
+        <v>0.02427171111048791</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5613,7 +5943,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01894614771771116</v>
+        <v>0.0004213429572338118</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5631,13 +5961,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29">
+        <v>0.02327327906007878</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.02152722382549355</v>
+        <v>0.0004692033573815456</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5655,13 +6009,37 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29">
+        <v>0.0240747385382871</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>22</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.02195449671474573</v>
+        <v>0.0005391531729820796</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5679,13 +6057,37 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU29">
+        <v>0.02419744203125762</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>22</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.02211003796653912</v>
+        <v>0.0006510728779429341</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5703,7 +6105,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM29">
+        <v>0.02424687436338073</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5711,7 +6137,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01894614771771116</v>
+        <v>0.0004213429572338118</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5729,13 +6155,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>0.0232494639881319</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>22</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02152722382549355</v>
+        <v>0.0004692033573815456</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5753,13 +6203,37 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30">
+        <v>0.02405007811468834</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>26</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.02195449671474573</v>
+        <v>0.0005391531729820796</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -5777,13 +6251,37 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU30">
+        <v>0.02417265591906171</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>26</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.02208988296383489</v>
+        <v>0.0006510728779429341</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5801,7 +6299,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM30">
+        <v>0.02422203761627356</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5809,7 +6331,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01894614771771116</v>
+        <v>0.0004206705382468513</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5827,13 +6349,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31">
+        <v>0.02322564891618503</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>26</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02152722382549355</v>
+        <v>0.0004660093671934834</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5851,13 +6397,37 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC31">
+        <v>0.02401308747929021</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>32</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02193450172684523</v>
+        <v>0.0005322738095000995</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -5875,13 +6445,37 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU31">
+        <v>0.02413547675076784</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>32</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02208988296383489</v>
+        <v>0.0006382969171906855</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -5899,7 +6493,31 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM31">
+        <v>0.02418478249561279</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5907,7 +6525,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01892889257407026</v>
+        <v>0.0004199981192598909</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5925,13 +6543,37 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32">
+        <v>0.02318992630826473</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>32</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02150761797501496</v>
+        <v>0.0004628153770054213</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -5949,13 +6591,37 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32">
+        <v>0.02399459216159114</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>35</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.02193450172684523</v>
+        <v>0.0005253944460181197</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -5973,19 +6639,43 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU32">
+        <v>0.02411688716662091</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>35</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.02206866695507114</v>
+        <v>0.000625520956438437</v>
       </c>
       <c r="BE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG32">
         <v>1</v>
@@ -5997,15 +6687,39 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM32">
+        <v>0.02416615493528241</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01892889257407026</v>
+        <v>0.0004193257002729304</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6023,13 +6737,37 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33">
+        <v>0.02317206500430457</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>35</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02150761797501496</v>
+        <v>0.0004596213868173591</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6047,13 +6785,37 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33">
+        <v>0.02382196919639984</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>63</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.02191450673894474</v>
+        <v>0.0005185150825361396</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6071,19 +6833,43 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33">
+        <v>0.02394338438124954</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>63</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02204851195236691</v>
+        <v>0.0006127449956861884</v>
       </c>
       <c r="BE33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG33">
         <v>1</v>
@@ -6095,15 +6881,39 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM33">
+        <v>0.02399229770553218</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01891163743042936</v>
+        <v>0.0004193257002729304</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6121,13 +6931,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34">
+        <v>0.02300535950067649</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>63</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.02148801212453637</v>
+        <v>0.0004596213868173591</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6145,13 +6979,37 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC34">
+        <v>0.02344589773651878</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>124</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.02191450673894474</v>
+        <v>0.0005185150825361396</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6169,13 +7027,37 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU34">
+        <v>0.0235653961702619</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>124</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BD34">
-        <v>0.02200926295301797</v>
+        <v>0.0006127449956861884</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6193,15 +7075,39 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM34">
+        <v>0.02361353731214774</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01891163743042936</v>
+        <v>0.00041865328128597</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6219,13 +7125,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35">
+        <v>0.02264217965348672</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>124</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.02148801212453637</v>
+        <v>0.000456427396629297</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6243,13 +7173,37 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC35">
+        <v>0.02337191646572251</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>136</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL35">
-        <v>0.02183452678734275</v>
+        <v>0.0005116357190541596</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -6267,13 +7221,37 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU35">
+        <v>0.02349103783367417</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>136</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BD35">
-        <v>0.02198910795031375</v>
+        <v>0.0005999690349339397</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -6291,15 +7269,39 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM35">
+        <v>0.02353902707082621</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:71">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01884261685586575</v>
+        <v>0.00041865328128597</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6317,13 +7319,37 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36">
+        <v>0.02257073443764611</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>136</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T36">
-        <v>0.021409588722622</v>
+        <v>0.000456427396629297</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6341,13 +7367,37 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC36">
+        <v>0.023322595618525</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>144</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.02181453179944225</v>
+        <v>0.0005116357190541596</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6365,13 +7415,37 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU36">
+        <v>0.02344146560928235</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>144</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD36">
-        <v>0.02196895294760952</v>
+        <v>0.0005999690349339397</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -6389,15 +7463,39 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM36">
+        <v>0.02348935357661186</v>
+      </c>
+      <c r="BN36">
+        <v>1</v>
+      </c>
+      <c r="BO36">
+        <v>1</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:71">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.01882536171222485</v>
+        <v>0.0004139463483772468</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6415,13 +7513,37 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>0.02252310429375237</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>144</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T37">
-        <v>0.02138998287214341</v>
+        <v>0.000434069465312862</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6439,19 +7561,43 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC37">
+        <v>0.02295268926454363</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>204</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="AL37">
-        <v>0.0218000987134724</v>
+        <v>0.0004634801746802996</v>
       </c>
       <c r="AM37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO37">
         <v>1</v>
@@ -6463,13 +7609,37 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU37">
+        <v>0.0230696739263437</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>204</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BD37">
-        <v>0.02194879794490529</v>
+        <v>0.0005105373096681999</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6487,15 +7657,39 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM37">
+        <v>0.02311680237000422</v>
+      </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:71">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01880810656858395</v>
+        <v>0.000411256672429405</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6513,13 +7707,37 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38">
+        <v>0.02216587821454932</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>204</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T38">
-        <v>0.02137037702166482</v>
+        <v>0.0004212935045606135</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6537,13 +7755,37 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC38">
+        <v>0.02247181100436786</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>282</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AL38">
-        <v>0.02179453681154175</v>
+        <v>0.0004359627207523797</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -6561,13 +7803,37 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU38">
+        <v>0.02258634473852344</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>282</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD38">
-        <v>0.02192864294220106</v>
+        <v>0.0004594334666592056</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -6585,15 +7851,39 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM38">
+        <v>0.02263248580141428</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:71">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01879085142494304</v>
+        <v>0.0004065497395206818</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6611,13 +7901,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>0.02170148431158535</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>282</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T39">
-        <v>0.02135077117118623</v>
+        <v>0.0003989355732441785</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6635,13 +7949,37 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC39">
+        <v>0.02184297020259954</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>384</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AL39">
-        <v>0.02177454182364126</v>
+        <v>0.0003878071763785196</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -6659,13 +7997,37 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU39">
+        <v>0.02195429887752772</v>
+      </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>384</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BD39">
-        <v>0.02190848793949683</v>
+        <v>0.0003700017413934656</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -6683,15 +8045,39 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM39">
+        <v>0.02199914875018129</v>
+      </c>
+      <c r="BN39">
+        <v>1</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:71">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01877359628130214</v>
+        <v>0.0004065497395206818</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6709,13 +8095,37 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.02109419997694016</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>384</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T40">
-        <v>0.02133116532070763</v>
+        <v>0.0003989355732441785</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6733,13 +8143,37 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC40">
+        <v>0.01994310980357454</v>
+      </c>
+      <c r="AD40">
+        <v>6</v>
+      </c>
+      <c r="AE40">
+        <v>6</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1092</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AL40">
-        <v>0.02175454683574076</v>
+        <v>0.0003878071763785196</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -6757,19 +8191,43 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU40">
+        <v>0.01992803420551204</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>711</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="BD40">
-        <v>0.02190742693343731</v>
+        <v>0.0003700017413934656</v>
       </c>
       <c r="BE40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG40">
         <v>1</v>
@@ -6781,15 +8239,39 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM40">
+        <v>0.01996874467416964</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
+      <c r="BO40">
+        <v>1</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>711</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:71">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01875634113766123</v>
+        <v>0.0004031876445858796</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -6807,13 +8289,37 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.01914731784528353</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>711</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="T41">
-        <v>0.02131155947022904</v>
+        <v>0.0003829656223038677</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6831,13 +8337,37 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC41">
+        <v>0.01982698057340111</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>711</v>
       </c>
       <c r="AK41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AL41">
-        <v>0.02173455184784026</v>
+        <v>0.0003534103589686197</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -6855,13 +8385,37 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU41">
+        <v>0.01950047377013258</v>
+      </c>
+      <c r="AV41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>1</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>780</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BD41">
-        <v>0.0218883329367926</v>
+        <v>0.0003061219376322228</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -6879,693 +8433,521 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM41">
+        <v>0.01954031078657085</v>
+      </c>
+      <c r="BN41">
+        <v>1</v>
+      </c>
+      <c r="BO41">
+        <v>1</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>780</v>
       </c>
     </row>
-    <row r="42" spans="1:62">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.01873908599402033</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>14</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42">
-        <v>0.02129195361975045</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>14</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL42">
-        <v>0.02171455685993977</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>14</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD42">
-        <v>0.02180771292597568</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>18</v>
+    <row r="42" spans="1:71">
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.01873650785420002</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>780</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC42">
+        <v>0.01940158826632253</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>780</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU42">
+        <v>0.01898292747669959</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>1092</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM42">
+        <v>0.01859610840144941</v>
+      </c>
+      <c r="BN42">
+        <v>6</v>
+      </c>
+      <c r="BO42">
+        <v>6</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>1</v>
+      </c>
+      <c r="BR42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>1092</v>
       </c>
     </row>
-    <row r="43" spans="1:62">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>0.01867006541945672</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>18</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43">
-        <v>0.02121353021783609</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>18</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL43">
-        <v>0.02163457690833778</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>18</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD43">
-        <v>0.02178755792327145</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>1</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>19</v>
+    <row r="43" spans="1:71">
+      <c r="J43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43">
+        <v>0.01683130209845042</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1100</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC43">
+        <v>0.01742875437842193</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1100</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU43">
+        <v>0.01751758479445974</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>1100</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM43">
+        <v>0.01755337101799676</v>
+      </c>
+      <c r="BN43">
+        <v>1</v>
+      </c>
+      <c r="BO43">
+        <v>1</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>1</v>
+      </c>
+      <c r="BR43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="1:62">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>0.01865281027581582</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>19</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T44">
-        <v>0.02119392436735749</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>19</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL44">
-        <v>0.02161458192043728</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>19</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD44">
-        <v>0.02176740292056722</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>1</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>20</v>
+    <row r="44" spans="1:71">
+      <c r="J44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>0.01658124384300829</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1142</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC44">
+        <v>0.01716981993063497</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1142</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU44">
+        <v>0.01725733061640268</v>
+      </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>1142</v>
+      </c>
+      <c r="BL44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM44">
+        <v>0.01729258517337141</v>
+      </c>
+      <c r="BN44">
+        <v>1</v>
+      </c>
+      <c r="BO44">
+        <v>1</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>1</v>
+      </c>
+      <c r="BR44" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>1142</v>
       </c>
     </row>
-    <row r="45" spans="1:62">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>0.01863555513217491</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>20</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T45">
-        <v>0.0211743185168789</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>20</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL45">
-        <v>0.02159458693253679</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>20</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD45">
-        <v>0.02158600789622917</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>29</v>
+    <row r="45" spans="1:71">
+      <c r="J45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45">
+        <v>0.0130506594268848</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1735</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC45">
+        <v>0.01351391213211916</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1735</v>
+      </c>
+      <c r="AT45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU45">
+        <v>0.01358278948335895</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <v>1</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>1735</v>
+      </c>
+      <c r="BL45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM45">
+        <v>0.01361053741473254</v>
+      </c>
+      <c r="BN45">
+        <v>1</v>
+      </c>
+      <c r="BO45">
+        <v>1</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>1</v>
+      </c>
+      <c r="BR45" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>1735</v>
       </c>
     </row>
-    <row r="46" spans="1:62">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
-        <v>0.01848025883940679</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>29</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T46">
-        <v>0.02099786586257158</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>29</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL46">
-        <v>0.02141463204143231</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>29</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD46">
-        <v>0.02148523288270802</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>1</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:62">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>0.01839398312120228</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>34</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T47">
-        <v>0.02089983661017862</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-      <c r="V47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>34</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL47">
-        <v>0.02131465710192983</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>34</v>
-      </c>
-      <c r="BC47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD47">
-        <v>0.0214226458624763</v>
-      </c>
-      <c r="BE47">
-        <v>3</v>
-      </c>
-      <c r="BF47">
-        <v>3</v>
-      </c>
-      <c r="BG47">
-        <v>1</v>
-      </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ47">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:62">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1100</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>1100</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>1</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>1100</v>
-      </c>
-      <c r="BC48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>1</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BG48">
-        <v>1</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>1100</v>
+    <row r="46" spans="1:71">
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>3927</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>3927</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>1</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="AZ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>3927</v>
+      </c>
+      <c r="BL46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>1</v>
+      </c>
+      <c r="BO46">
+        <v>1</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>1</v>
+      </c>
+      <c r="BR46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>3927</v>
       </c>
     </row>
   </sheetData>
